--- a/Resultados PIA P1.xlsx
+++ b/Resultados PIA P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escuelita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B409AA4F-38D8-4870-A805-F57AEAB1E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB6965A-27DB-4890-99BB-90C486DD09CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AAEFDBA-FEEA-48BD-AF90-846CAE9CA050}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Archivo</t>
   </si>
@@ -414,13 +414,19 @@
   </si>
   <si>
     <t>[3, 2, 8, 9, 5, 7, 6, 4, 20, 19, 16, 13, 11, 21, 14, 12, 31, 26, 23, 25, 30, 28, 32, 29, 33, 34, 37, 35, 43, 40, 41, 50, 54, 47, 46, 44, 53, 52, 49, 61, 58, 55, 60, 59, 64, 56, 62, 75, 71, 72, 76, 70, 73, 67, 69, 82, 77, 85, 86, 80, 78, 87]</t>
+  </si>
+  <si>
+    <t>Promedio de los 8 subtemas</t>
+  </si>
+  <si>
+    <t>Duracion Total de los 8 subtemas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +444,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,14 +481,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -490,13 +536,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B316E51B-61A5-4734-8A79-BAF5FAAD39E6}" name="Tabla1" displayName="Tabla1" ref="A1:E31" totalsRowShown="0">
-  <autoFilter ref="A1:E31" xr:uid="{B316E51B-61A5-4734-8A79-BAF5FAAD39E6}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B316E51B-61A5-4734-8A79-BAF5FAAD39E6}" name="Tabla1" displayName="Tabla1" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{B316E51B-61A5-4734-8A79-BAF5FAAD39E6}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4B006995-9401-40E1-A87A-FC665D80948F}" name="Archivo"/>
     <tableColumn id="2" xr3:uid="{1D2B30CE-40E6-4D04-90AD-401B06A2D1BC}" name="Tareas a Realizar"/>
     <tableColumn id="3" xr3:uid="{1A7A172F-EA77-42B7-B091-B815B64FBCB6}" name="Calificaciones de cada subtema"/>
+    <tableColumn id="6" xr3:uid="{BB7C5FC9-6DBB-44B2-84D8-B3B37F0D1A8D}" name="Promedio de los 8 subtemas" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{C9DE84CD-C838-4DDD-A7B8-65A33D0B9A01}" name="Duracion de cada subtema"/>
+    <tableColumn id="7" xr3:uid="{1A1C1653-0FDE-4FE1-AD55-84DB1F6B4629}" name="Duracion Total de los 8 subtemas" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{971375BC-0F05-4793-82B6-57781272E1C9}" name="Runtime (segundos)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -800,21 +848,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4608DA-15DB-42B0-9D17-3191136EE76B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="211.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -825,13 +875,19 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -841,14 +897,20 @@
       <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="2">
+        <v>476</v>
+      </c>
+      <c r="G2">
         <v>9.9611282348600005E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -858,14 +920,20 @@
       <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2">
+        <v>76.25</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="2">
+        <v>485</v>
+      </c>
+      <c r="G3">
         <v>9.9754333496099995E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -875,14 +943,20 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2">
+        <v>78.625</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="2">
+        <v>509</v>
+      </c>
+      <c r="G4">
         <v>9.9825859069799998E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -892,14 +966,20 @@
       <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2">
+        <v>73.125</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="2">
+        <v>445</v>
+      </c>
+      <c r="G5">
         <v>1.0726451873779999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -909,14 +989,20 @@
       <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="2">
+        <v>454</v>
+      </c>
+      <c r="G6">
         <v>1.5091896057129999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -926,14 +1012,20 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2">
+        <v>84.25</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
+      <c r="F7" s="2">
+        <v>523</v>
+      </c>
+      <c r="G7">
         <v>1.018285751343E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -943,14 +1035,20 @@
       <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2">
+        <v>75.25</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="2">
+        <v>472</v>
+      </c>
+      <c r="G8">
         <v>1.001834869385E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -960,14 +1058,20 @@
       <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2">
+        <v>75.25</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="2">
+        <v>450</v>
+      </c>
+      <c r="G9">
         <v>1.0313987731930001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -977,14 +1081,20 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2">
+        <v>80.375</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="2">
+        <v>484</v>
+      </c>
+      <c r="G10">
         <v>9.9635124206499991E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -994,14 +1104,20 @@
       <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2">
+        <v>75.125</v>
+      </c>
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="2">
+        <v>430</v>
+      </c>
+      <c r="G11">
         <v>6.4902305603029998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1011,14 +1127,20 @@
       <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2">
+        <v>77.625</v>
+      </c>
+      <c r="E12" t="s">
         <v>68</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="2">
+        <v>509</v>
+      </c>
+      <c r="G12">
         <v>2.3550987243650002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1028,14 +1150,20 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2">
+        <v>77.125</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="2">
+        <v>474</v>
+      </c>
+      <c r="G13">
         <v>1.4400482177729999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1045,14 +1173,20 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="2">
+        <v>429</v>
+      </c>
+      <c r="G14">
         <v>9.9587440490699996E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1062,14 +1196,20 @@
       <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2">
+        <v>75.625</v>
+      </c>
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="E15">
+      <c r="F15" s="2">
+        <v>475</v>
+      </c>
+      <c r="G15">
         <v>9.996891021730001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1079,14 +1219,20 @@
       <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2">
+        <v>77.875</v>
+      </c>
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="2">
+        <v>474</v>
+      </c>
+      <c r="G16">
         <v>9.9611282348600005E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1096,14 +1242,20 @@
       <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="E17">
+      <c r="F17" s="2">
+        <v>461</v>
+      </c>
+      <c r="G17">
         <v>9.97066497803E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1113,14 +1265,20 @@
       <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2">
+        <v>75.125</v>
+      </c>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="E18">
+      <c r="F18" s="2">
+        <v>427</v>
+      </c>
+      <c r="G18">
         <v>9.9611282348600005E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1130,14 +1288,20 @@
       <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2">
+        <v>74.75</v>
+      </c>
+      <c r="E19" t="s">
         <v>87</v>
       </c>
-      <c r="E19">
+      <c r="F19" s="2">
+        <v>459</v>
+      </c>
+      <c r="G19">
         <v>9.9682807922399992E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1147,14 +1311,20 @@
       <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2">
+        <v>73.375</v>
+      </c>
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="E20">
+      <c r="F20" s="2">
+        <v>426</v>
+      </c>
+      <c r="G20">
         <v>9.97066497803E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1164,14 +1334,20 @@
       <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2">
+        <v>78.375</v>
+      </c>
+      <c r="E21" t="s">
         <v>93</v>
       </c>
-      <c r="E21">
+      <c r="F21" s="2">
+        <v>480</v>
+      </c>
+      <c r="G21">
         <v>1.0161399841310001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1181,14 +1357,20 @@
       <c r="C22" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2">
+        <v>75.625</v>
+      </c>
+      <c r="E22" t="s">
         <v>98</v>
       </c>
-      <c r="E22">
+      <c r="F22" s="2">
+        <v>434</v>
+      </c>
+      <c r="G22">
         <v>1.1670589447019999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1198,14 +1380,20 @@
       <c r="C23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2">
+        <v>74.875</v>
+      </c>
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="E23">
+      <c r="F23" s="2">
+        <v>433</v>
+      </c>
+      <c r="G23">
         <v>9.9992752075199996E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1215,14 +1403,20 @@
       <c r="C24" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2">
+        <v>76.875</v>
+      </c>
+      <c r="E24" t="s">
         <v>104</v>
       </c>
-      <c r="E24">
+      <c r="F24" s="2">
+        <v>471</v>
+      </c>
+      <c r="G24">
         <v>9.9992752075199996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1232,14 +1426,20 @@
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="E25">
+      <c r="F25" s="2">
+        <v>439</v>
+      </c>
+      <c r="G25">
         <v>9.9611282348600005E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1249,14 +1449,20 @@
       <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2">
+        <v>75.25</v>
+      </c>
+      <c r="E26" t="s">
         <v>110</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="2">
+        <v>447</v>
+      </c>
+      <c r="G26">
         <v>9.9754333496099995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1266,14 +1472,20 @@
       <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2">
+        <v>75.875</v>
+      </c>
+      <c r="E27" t="s">
         <v>111</v>
       </c>
-      <c r="E27">
+      <c r="F27" s="2">
+        <v>462</v>
+      </c>
+      <c r="G27">
         <v>9.980201721189999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1283,14 +1495,20 @@
       <c r="C28" t="s">
         <v>115</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2">
+        <v>75.875</v>
+      </c>
+      <c r="E28" t="s">
         <v>116</v>
       </c>
-      <c r="E28">
+      <c r="F28" s="2">
+        <v>430</v>
+      </c>
+      <c r="G28">
         <v>9.9778175354000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1300,14 +1518,20 @@
       <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2">
+        <v>74.625</v>
+      </c>
+      <c r="E29" t="s">
         <v>117</v>
       </c>
-      <c r="E29">
+      <c r="F29" s="2">
+        <v>467</v>
+      </c>
+      <c r="G29">
         <v>9.9825859069799998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1317,14 +1541,20 @@
       <c r="C30" t="s">
         <v>121</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2">
+        <v>75.875</v>
+      </c>
+      <c r="E30" t="s">
         <v>122</v>
       </c>
-      <c r="E30">
+      <c r="F30" s="2">
+        <v>443</v>
+      </c>
+      <c r="G30">
         <v>1.0015964508059999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1334,19 +1564,25 @@
       <c r="C31" t="s">
         <v>124</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2">
+        <v>76.75</v>
+      </c>
+      <c r="E31" t="s">
         <v>123</v>
       </c>
-      <c r="E31">
+      <c r="F31" s="2">
+        <v>444</v>
+      </c>
+      <c r="G31">
         <v>9.9349021911599995E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
-        <f>SUM(E2:E31)</f>
+      <c r="G32">
+        <f>SUM(G2:G31)</f>
         <v>3.8051605224608008E-2</v>
       </c>
     </row>
